--- a/biology/Microbiologie/Amibe/Amibe.xlsx
+++ b/biology/Microbiologie/Amibe/Amibe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une amibe est un micro-organisme appartenant à divers groupes de cellules complexes eucaryotes. Dans l'usage du terme, amibe désigne en fait des organismes membres de nombreux groupes de protistes amiboïdes de différents taxons eucaryotes : Amoebozoa, Acanthamoeba, Rhizaria, Heterokonta, Excavata et Opisthokonta[1] : il ne s'agit donc pas d'un groupe monophylétique mais polyphylétique. L'ancêtre commun à toutes les amibes est peut-être également l'ancêtre commun de tous les eucaryotes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une amibe est un micro-organisme appartenant à divers groupes de cellules complexes eucaryotes. Dans l'usage du terme, amibe désigne en fait des organismes membres de nombreux groupes de protistes amiboïdes de différents taxons eucaryotes : Amoebozoa, Acanthamoeba, Rhizaria, Heterokonta, Excavata et Opisthokonta : il ne s'agit donc pas d'un groupe monophylétique mais polyphylétique. L'ancêtre commun à toutes les amibes est peut-être également l'ancêtre commun de tous les eucaryotes.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biologie, écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans leur vie globale comme dans leur fonctionnement cellulaire interne, les amibes sont des unicellulaires eucaryotes, hétérotrophes phagotrophes, au même titre que beaucoup de paramécies.
 La structure de la cellule d'une amibe ressemble beaucoup plus à celle des êtres multicellulaires qu'aux autres êtres unicellulaires.
 Les amibes sont autant des organismes libres que parasites. Elles peuvent être nues ou posséder une coquille ou thèque, comme  les thécamibiens ou les foraminifères.
-Les amibes se déplacent et se nourrissent grâce à des sortes de membres temporaires dits pseudopodes. Elles peuvent attaquer d'autres cellules par phagocytoses[3].
+Les amibes se déplacent et se nourrissent grâce à des sortes de membres temporaires dits pseudopodes. Elles peuvent attaquer d'autres cellules par phagocytoses.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein de la grande famille d'être aussi divers que sont les amibes, il existe non pas une mais plusieurs façons de se reproduire.
-La fission binaire est la manière la plus répandue, celle-ci étant généralement simple - en deux clones - ou, dans certaines conditions et pour certaines amibes, multiple. Proche de cette façon en fission multiples, certaines amibes se reproduisent par sporulation, tandis que d'autres encore, dotées d'une façon de s'agréger voire de se mitiger, ont une reproduction quasiment sexuée[4].
+La fission binaire est la manière la plus répandue, celle-ci étant généralement simple - en deux clones - ou, dans certaines conditions et pour certaines amibes, multiple. Proche de cette façon en fission multiples, certaines amibes se reproduisent par sporulation, tandis que d'autres encore, dotées d'une façon de s'agréger voire de se mitiger, ont une reproduction quasiment sexuée.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Aspects sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines amibes (Entamoeba histolytica) sont causes chez l'Homme d'une infection parasitaire des voies digestives nommée amibiase (ou Amœbose). Le parasite est éliminé dans les déjections fécales des sujets infectés sous sa forme de kyste (forme résistante de l'agent infectieux). La transmission de la maladie se fait par voie digestive, directement par les mains sales ou indirectement par l'eau ou les aliments souillés de matières fécales. Ce type de risque est communément appelé le péril fécal[5].
-Les kystes sont parfois très résistants et peuvent rester viables plus de 20 ans pour les Acanthamoeba[6],[7].
-La prévention repose en priorité sur l’élimination de la contamination fécale de l’eau, des aliments et des mains[5].
-Les procédés de potabilisation de l'eau doivent l'éliminer[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines amibes (Entamoeba histolytica) sont causes chez l'Homme d'une infection parasitaire des voies digestives nommée amibiase (ou Amœbose). Le parasite est éliminé dans les déjections fécales des sujets infectés sous sa forme de kyste (forme résistante de l'agent infectieux). La transmission de la maladie se fait par voie digestive, directement par les mains sales ou indirectement par l'eau ou les aliments souillés de matières fécales. Ce type de risque est communément appelé le péril fécal.
+Les kystes sont parfois très résistants et peuvent rester viables plus de 20 ans pour les Acanthamoeba,.
+La prévention repose en priorité sur l’élimination de la contamination fécale de l’eau, des aliments et des mains.
+Les procédés de potabilisation de l'eau doivent l'éliminer.
 </t>
         </is>
       </c>
